--- a/Code/Results/Cases/Case_5_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9174924697400968</v>
+        <v>0.6316186220041402</v>
       </c>
       <c r="C2">
-        <v>0.0907166486510107</v>
+        <v>0.07125170108918866</v>
       </c>
       <c r="D2">
-        <v>0.07415538032095981</v>
+        <v>0.1207110662168702</v>
       </c>
       <c r="E2">
-        <v>0.04804642995489239</v>
+        <v>0.1264744829630988</v>
       </c>
       <c r="F2">
-        <v>0.8179633793005223</v>
+        <v>1.839229413046716</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4885029752873642</v>
+        <v>1.180964694729802</v>
       </c>
       <c r="J2">
-        <v>0.06192652712400637</v>
+        <v>0.1669240167403272</v>
       </c>
       <c r="K2">
-        <v>0.8164142621665178</v>
+        <v>0.378481612229848</v>
       </c>
       <c r="L2">
-        <v>0.1601880625840195</v>
+        <v>0.2919783802867784</v>
       </c>
       <c r="M2">
-        <v>0.2011891537576425</v>
+        <v>0.2055474092354217</v>
       </c>
       <c r="N2">
-        <v>1.092798326459751</v>
+        <v>2.323046336851971</v>
       </c>
       <c r="O2">
-        <v>2.10877430182228</v>
+        <v>4.835883696442039</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8011663448557158</v>
+        <v>0.600220615874747</v>
       </c>
       <c r="C3">
-        <v>0.08417222191675222</v>
+        <v>0.06899834983577335</v>
       </c>
       <c r="D3">
-        <v>0.06762229279433285</v>
+        <v>0.1194363074791909</v>
       </c>
       <c r="E3">
-        <v>0.04749471699340013</v>
+        <v>0.1268470240156478</v>
       </c>
       <c r="F3">
-        <v>0.806783250231895</v>
+        <v>1.846758462271971</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4934469799213943</v>
+        <v>1.188678852143507</v>
       </c>
       <c r="J3">
-        <v>0.06329260819257421</v>
+        <v>0.1678133097194987</v>
       </c>
       <c r="K3">
-        <v>0.7097721218260915</v>
+        <v>0.3479371721943778</v>
       </c>
       <c r="L3">
-        <v>0.148523582641495</v>
+        <v>0.2901956071359777</v>
       </c>
       <c r="M3">
-        <v>0.1780163568140978</v>
+        <v>0.1998869737122959</v>
       </c>
       <c r="N3">
-        <v>1.136630714396347</v>
+        <v>2.342554194110397</v>
       </c>
       <c r="O3">
-        <v>2.100283989474761</v>
+        <v>4.861596536175341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.729971528881407</v>
+        <v>0.581146483914722</v>
       </c>
       <c r="C4">
-        <v>0.08014149194317355</v>
+        <v>0.06759724066484551</v>
       </c>
       <c r="D4">
-        <v>0.06365438729681472</v>
+        <v>0.118693624085239</v>
       </c>
       <c r="E4">
-        <v>0.04719647172893104</v>
+        <v>0.1271085485914742</v>
       </c>
       <c r="F4">
-        <v>0.8010546102409961</v>
+        <v>1.85210271246325</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4971717668510287</v>
+        <v>1.193846659057375</v>
       </c>
       <c r="J4">
-        <v>0.06417454056514416</v>
+        <v>0.1683917031470088</v>
       </c>
       <c r="K4">
-        <v>0.6443961332208659</v>
+        <v>0.3292647271921822</v>
       </c>
       <c r="L4">
-        <v>0.1414885864070428</v>
+        <v>0.2892018913790011</v>
       </c>
       <c r="M4">
-        <v>0.1638772985921193</v>
+        <v>0.1964861394992674</v>
       </c>
       <c r="N4">
-        <v>1.164639008782237</v>
+        <v>2.355144546112391</v>
       </c>
       <c r="O4">
-        <v>2.098198674736622</v>
+        <v>4.879304513429688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7010086059906087</v>
+        <v>0.5734256933622817</v>
       </c>
       <c r="C5">
-        <v>0.07849530002948768</v>
+        <v>0.06702188112149088</v>
       </c>
       <c r="D5">
-        <v>0.06204786883684221</v>
+        <v>0.1184010980518124</v>
       </c>
       <c r="E5">
-        <v>0.04708493517164491</v>
+        <v>0.1272233885842766</v>
       </c>
       <c r="F5">
-        <v>0.798996723962432</v>
+        <v>1.854462212088606</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4988582812448321</v>
+        <v>1.196061156507636</v>
       </c>
       <c r="J5">
-        <v>0.06454469874474977</v>
+        <v>0.1686355561186801</v>
       </c>
       <c r="K5">
-        <v>0.6177732104915492</v>
+        <v>0.321676708198197</v>
       </c>
       <c r="L5">
-        <v>0.1386523328555924</v>
+        <v>0.2888224254798146</v>
       </c>
       <c r="M5">
-        <v>0.158136045169055</v>
+        <v>0.1951192053120856</v>
       </c>
       <c r="N5">
-        <v>1.176323277669258</v>
+        <v>2.360429313905574</v>
       </c>
       <c r="O5">
-        <v>2.098110503313038</v>
+        <v>4.887004079672749</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6962020933922872</v>
+        <v>0.5721468271306094</v>
       </c>
       <c r="C6">
-        <v>0.07822171705769421</v>
+        <v>0.06692607803084627</v>
       </c>
       <c r="D6">
-        <v>0.06178172412393224</v>
+        <v>0.1183531375011384</v>
       </c>
       <c r="E6">
-        <v>0.04706701335891061</v>
+        <v>0.1272429576391225</v>
       </c>
       <c r="F6">
-        <v>0.7986714601634901</v>
+        <v>1.85486498601594</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4991483781482096</v>
+        <v>1.196435433400424</v>
       </c>
       <c r="J6">
-        <v>0.06460681082293895</v>
+        <v>0.1686765405721138</v>
       </c>
       <c r="K6">
-        <v>0.6133533891859031</v>
+        <v>0.3204180170517787</v>
       </c>
       <c r="L6">
-        <v>0.1381831819642869</v>
+        <v>0.288760957573075</v>
       </c>
       <c r="M6">
-        <v>0.1571839008796445</v>
+        <v>0.1948933748841846</v>
       </c>
       <c r="N6">
-        <v>1.178279655450108</v>
+        <v>2.361316155393622</v>
       </c>
       <c r="O6">
-        <v>2.098141154175124</v>
+        <v>4.888311801170616</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7295807348006065</v>
+        <v>0.5810421468862614</v>
       </c>
       <c r="C7">
-        <v>0.08011930620442342</v>
+        <v>0.06758949894610566</v>
       </c>
       <c r="D7">
-        <v>0.06363267960280439</v>
+        <v>0.118689637908119</v>
       </c>
       <c r="E7">
-        <v>0.04719492725429575</v>
+        <v>0.1271100638617479</v>
       </c>
       <c r="F7">
-        <v>0.8010257487144798</v>
+        <v>1.85213379754066</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4971938349965761</v>
+        <v>1.193876084766217</v>
       </c>
       <c r="J7">
-        <v>0.06417948917940297</v>
+        <v>0.1683949588024829</v>
       </c>
       <c r="K7">
-        <v>0.6440370226249428</v>
+        <v>0.3291623061427771</v>
       </c>
       <c r="L7">
-        <v>0.1414502137243332</v>
+        <v>0.2891966704553681</v>
       </c>
       <c r="M7">
-        <v>0.1637997893503496</v>
+        <v>0.1964676276867259</v>
       </c>
       <c r="N7">
-        <v>1.164795497068791</v>
+        <v>2.355215194282753</v>
       </c>
       <c r="O7">
-        <v>2.098194434005038</v>
+        <v>4.879406394353708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8773303680248432</v>
+        <v>0.6207505710850398</v>
       </c>
       <c r="C8">
-        <v>0.0884623899307968</v>
+        <v>0.07047839492211949</v>
       </c>
       <c r="D8">
-        <v>0.07189345422165871</v>
+        <v>0.1202632574124323</v>
       </c>
       <c r="E8">
-        <v>0.047847677480366</v>
+        <v>0.1265961448056565</v>
       </c>
       <c r="F8">
-        <v>0.8138671062198171</v>
+        <v>1.841675870316244</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4900617717151867</v>
+        <v>1.1835350980299</v>
       </c>
       <c r="J8">
-        <v>0.06238854190923426</v>
+        <v>0.1672239367568586</v>
       </c>
       <c r="K8">
-        <v>0.7796180652757982</v>
+        <v>0.367933193807886</v>
       </c>
       <c r="L8">
-        <v>0.1561389279703178</v>
+        <v>0.2913427976556449</v>
       </c>
       <c r="M8">
-        <v>0.1931795035387474</v>
+        <v>0.2035802760184851</v>
       </c>
       <c r="N8">
-        <v>1.107681582649748</v>
+        <v>2.329645589313754</v>
       </c>
       <c r="O8">
-        <v>2.105182353313594</v>
+        <v>4.844351290028769</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.169298564971825</v>
+        <v>0.7002144827138181</v>
       </c>
       <c r="C9">
-        <v>0.1047498936251046</v>
+        <v>0.07600389197438062</v>
       </c>
       <c r="D9">
-        <v>0.08846137194191073</v>
+        <v>0.123664328726008</v>
       </c>
       <c r="E9">
-        <v>0.04945800122270683</v>
+        <v>0.1258474839351198</v>
       </c>
       <c r="F9">
-        <v>0.8484932065464648</v>
+        <v>1.826880382583134</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4817636150117224</v>
+        <v>1.16667310665569</v>
       </c>
       <c r="J9">
-        <v>0.0592229317086348</v>
+        <v>0.1651836791612649</v>
       </c>
       <c r="K9">
-        <v>1.046677364583587</v>
+        <v>0.4445930977456669</v>
       </c>
       <c r="L9">
-        <v>0.1860183880531565</v>
+        <v>0.296347853461647</v>
       </c>
       <c r="M9">
-        <v>0.251592686976938</v>
+        <v>0.2181150711380901</v>
       </c>
       <c r="N9">
-        <v>1.004587775813422</v>
+        <v>2.284358322284866</v>
       </c>
       <c r="O9">
-        <v>2.14488204103651</v>
+        <v>4.790820363375104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.38578613540318</v>
+        <v>0.7595410115415291</v>
       </c>
       <c r="C10">
-        <v>0.1167102875674431</v>
+        <v>0.07997812401588078</v>
       </c>
       <c r="D10">
-        <v>0.100894597068816</v>
+        <v>0.1263524347641223</v>
       </c>
       <c r="E10">
-        <v>0.0508555189613169</v>
+        <v>0.1254541373508964</v>
       </c>
       <c r="F10">
-        <v>0.8803211849329884</v>
+        <v>1.819478455324472</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4794545295527932</v>
+        <v>1.156360370999312</v>
       </c>
       <c r="J10">
-        <v>0.05711408400762341</v>
+        <v>0.163839874655153</v>
       </c>
       <c r="K10">
-        <v>1.244170565375782</v>
+        <v>0.5012780835376134</v>
       </c>
       <c r="L10">
-        <v>0.2087260677730427</v>
+        <v>0.3005056398034895</v>
       </c>
       <c r="M10">
-        <v>0.2951358196961635</v>
+        <v>0.2291450729885511</v>
       </c>
       <c r="N10">
-        <v>0.934586767206403</v>
+        <v>2.254037554788663</v>
       </c>
       <c r="O10">
-        <v>2.191622401759332</v>
+        <v>4.760734928500455</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484848298217997</v>
+        <v>0.7867295770157341</v>
       </c>
       <c r="C11">
-        <v>0.122159371816565</v>
+        <v>0.08176754092599481</v>
       </c>
       <c r="D11">
-        <v>0.1066159147924282</v>
+        <v>0.1276158601977642</v>
       </c>
       <c r="E11">
-        <v>0.05154089509970383</v>
+        <v>0.1253089511117924</v>
       </c>
       <c r="F11">
-        <v>0.8963355130253206</v>
+        <v>1.816861326948505</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4793014285263482</v>
+        <v>1.15211809206928</v>
       </c>
       <c r="J11">
-        <v>0.05620314941178872</v>
+        <v>0.1632620331811978</v>
       </c>
       <c r="K11">
-        <v>1.334428000237466</v>
+        <v>0.5271401691034896</v>
       </c>
       <c r="L11">
-        <v>0.2192439161030251</v>
+        <v>0.3025004559033277</v>
       </c>
       <c r="M11">
-        <v>0.3151138860600042</v>
+        <v>0.2342378776180851</v>
       </c>
       <c r="N11">
-        <v>0.9040613860981008</v>
+        <v>2.240883152461941</v>
       </c>
       <c r="O11">
-        <v>2.21710633557251</v>
+        <v>4.749049328326407</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522456669875595</v>
+        <v>0.7970534132011551</v>
       </c>
       <c r="C12">
-        <v>0.1242247974910526</v>
+        <v>0.08244247783002834</v>
       </c>
       <c r="D12">
-        <v>0.1087925521477473</v>
+        <v>0.1281000680323245</v>
       </c>
       <c r="E12">
-        <v>0.051807831767265</v>
+        <v>0.1252588033828488</v>
       </c>
       <c r="F12">
-        <v>0.9026335610630269</v>
+        <v>1.8159778883755</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4793791220187273</v>
+        <v>1.150576104904722</v>
       </c>
       <c r="J12">
-        <v>0.0558652817522205</v>
+        <v>0.1630480163862291</v>
       </c>
       <c r="K12">
-        <v>1.368677559984178</v>
+        <v>0.5369438851499524</v>
       </c>
       <c r="L12">
-        <v>0.2232558217782667</v>
+        <v>0.3032706138178582</v>
       </c>
       <c r="M12">
-        <v>0.322706354546682</v>
+        <v>0.2361770669647427</v>
       </c>
       <c r="N12">
-        <v>0.8926984334166829</v>
+        <v>2.235993672111134</v>
       </c>
       <c r="O12">
-        <v>2.227399276825565</v>
+        <v>4.744911429291932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514352576665118</v>
+        <v>0.7948287515610275</v>
       </c>
       <c r="C13">
-        <v>0.1237798700017834</v>
+        <v>0.08229723742719841</v>
       </c>
       <c r="D13">
-        <v>0.10832331367574</v>
+        <v>0.1279955292940684</v>
       </c>
       <c r="E13">
-        <v>0.05175000875807889</v>
+        <v>0.1252693890754593</v>
       </c>
       <c r="F13">
-        <v>0.9012665522716219</v>
+        <v>1.816163370535868</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4793562455052225</v>
+        <v>1.150905333603191</v>
       </c>
       <c r="J13">
-        <v>0.05593773049577777</v>
+        <v>0.1630938954840584</v>
       </c>
       <c r="K13">
-        <v>1.361297960832445</v>
+        <v>0.5348320306216863</v>
       </c>
       <c r="L13">
-        <v>0.2223904622391188</v>
+        <v>0.303104091587187</v>
       </c>
       <c r="M13">
-        <v>0.3210699248003692</v>
+        <v>0.2357589565033535</v>
       </c>
       <c r="N13">
-        <v>0.8951368041898661</v>
+        <v>2.237042626578998</v>
       </c>
       <c r="O13">
-        <v>2.225153330835326</v>
+        <v>4.745789834818112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.487940371557841</v>
+        <v>0.7875783659394244</v>
       </c>
       <c r="C14">
-        <v>0.1223292512869421</v>
+        <v>0.0818231221398662</v>
       </c>
       <c r="D14">
-        <v>0.1067947815297572</v>
+        <v>0.1276555808568247</v>
       </c>
       <c r="E14">
-        <v>0.05156270629028903</v>
+        <v>0.1253047287299065</v>
       </c>
       <c r="F14">
-        <v>0.8968488952033766</v>
+        <v>1.816786490637512</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4793050619806181</v>
+        <v>1.15198994031239</v>
       </c>
       <c r="J14">
-        <v>0.05617521013244531</v>
+        <v>0.1632443297783164</v>
       </c>
       <c r="K14">
-        <v>1.337244242413192</v>
+        <v>0.5279465235930161</v>
       </c>
       <c r="L14">
-        <v>0.2195733844679211</v>
+        <v>0.302563521972445</v>
       </c>
       <c r="M14">
-        <v>0.3157379613240536</v>
+        <v>0.2343972032670791</v>
       </c>
       <c r="N14">
-        <v>0.90312257394888</v>
+        <v>2.240479052216209</v>
       </c>
       <c r="O14">
-        <v>2.217940048694913</v>
+        <v>4.748703147991279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.471774967969367</v>
+        <v>0.7831409352100138</v>
       </c>
       <c r="C15">
-        <v>0.1214409872396089</v>
+        <v>0.08153236372280048</v>
       </c>
       <c r="D15">
-        <v>0.1058598479628614</v>
+        <v>0.1274481030220045</v>
       </c>
       <c r="E15">
-        <v>0.0514489497808075</v>
+        <v>0.1253270037970662</v>
       </c>
       <c r="F15">
-        <v>0.8941737939093457</v>
+        <v>1.817182176586748</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4792915824450859</v>
+        <v>1.152662686436962</v>
       </c>
       <c r="J15">
-        <v>0.05632159957121008</v>
+        <v>0.1633370997580013</v>
       </c>
       <c r="K15">
-        <v>1.322520237278354</v>
+        <v>0.5237302761487399</v>
       </c>
       <c r="L15">
-        <v>0.2178516839937998</v>
+        <v>0.3022343270513517</v>
       </c>
       <c r="M15">
-        <v>0.3124756077466486</v>
+        <v>0.2335644729310005</v>
       </c>
       <c r="N15">
-        <v>0.9080398659337385</v>
+        <v>2.24259591709613</v>
       </c>
       <c r="O15">
-        <v>2.213606503273951</v>
+        <v>4.75052502225725</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.379324899556536</v>
+        <v>0.7577681493114312</v>
       </c>
       <c r="C16">
-        <v>0.1163544091493094</v>
+        <v>0.07986080791192762</v>
       </c>
       <c r="D16">
-        <v>0.1005220697653044</v>
+        <v>0.1262706785412249</v>
       </c>
       <c r="E16">
-        <v>0.05081174890912976</v>
+        <v>0.1254643028551268</v>
       </c>
       <c r="F16">
-        <v>0.8793066010641013</v>
+        <v>1.819664562747839</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4794831498240093</v>
+        <v>1.156646641183357</v>
       </c>
       <c r="J16">
-        <v>0.05717460000424079</v>
+        <v>0.1638783102183545</v>
       </c>
       <c r="K16">
-        <v>1.238281348159404</v>
+        <v>0.4995894099241411</v>
       </c>
       <c r="L16">
-        <v>0.2080426521824421</v>
+        <v>0.3003773457664067</v>
       </c>
       <c r="M16">
-        <v>0.2938338596734127</v>
+        <v>0.2288137458741843</v>
       </c>
       <c r="N16">
-        <v>0.9366087716681831</v>
+        <v>2.254910074629715</v>
       </c>
       <c r="O16">
-        <v>2.190044915664231</v>
+        <v>4.761538822954378</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.322766952341567</v>
+        <v>0.7422536311017893</v>
       </c>
       <c r="C17">
-        <v>0.1132366127846041</v>
+        <v>0.07883061568801963</v>
       </c>
       <c r="D17">
-        <v>0.09726474434622645</v>
+        <v>0.1255587199870902</v>
       </c>
       <c r="E17">
-        <v>0.05043374205030204</v>
+        <v>0.1255571597087233</v>
       </c>
       <c r="F17">
-        <v>0.8705883434537327</v>
+        <v>1.821379356873308</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4798350947433754</v>
+        <v>1.15920560671174</v>
       </c>
       <c r="J17">
-        <v>0.05771036902956528</v>
+        <v>0.1642188867430079</v>
       </c>
       <c r="K17">
-        <v>1.186717930437482</v>
+        <v>0.484798762054055</v>
       </c>
       <c r="L17">
-        <v>0.2020746603403865</v>
+        <v>0.2992645595989103</v>
       </c>
       <c r="M17">
-        <v>0.2824432147031999</v>
+        <v>0.2259184764044022</v>
       </c>
       <c r="N17">
-        <v>0.9544772381152899</v>
+        <v>2.262627964876007</v>
       </c>
       <c r="O17">
-        <v>2.176696592585586</v>
+        <v>4.768807450292371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290290218701955</v>
+        <v>0.7333490186990161</v>
       </c>
       <c r="C18">
-        <v>0.1114440636442993</v>
+        <v>0.07823633796442664</v>
       </c>
       <c r="D18">
-        <v>0.09539732679967727</v>
+        <v>0.1251530446694318</v>
       </c>
       <c r="E18">
-        <v>0.0502209781929146</v>
+        <v>0.1256137464470779</v>
       </c>
       <c r="F18">
-        <v>0.8657175526581682</v>
+        <v>1.822436273530471</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4801215637710392</v>
+        <v>1.160719727313019</v>
       </c>
       <c r="J18">
-        <v>0.05802307610991608</v>
+        <v>0.1644179276918791</v>
       </c>
       <c r="K18">
-        <v>1.157098539126395</v>
+        <v>0.4762987429471366</v>
       </c>
       <c r="L18">
-        <v>0.1986595996362936</v>
+        <v>0.2986342550412502</v>
       </c>
       <c r="M18">
-        <v>0.2759074504903438</v>
+        <v>0.2242602818161785</v>
       </c>
       <c r="N18">
-        <v>0.96487837700895</v>
+        <v>2.267127207378882</v>
       </c>
       <c r="O18">
-        <v>2.169414078605712</v>
+        <v>4.773176489236135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.279303054990351</v>
+        <v>0.7303373432217768</v>
       </c>
       <c r="C19">
-        <v>0.1108372386830467</v>
+        <v>0.07803482774077963</v>
       </c>
       <c r="D19">
-        <v>0.09476608011826926</v>
+        <v>0.125016348685385</v>
       </c>
       <c r="E19">
-        <v>0.05014973188598582</v>
+        <v>0.1256334522264488</v>
       </c>
       <c r="F19">
-        <v>0.8640926885370561</v>
+        <v>1.822806262557073</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4802327952014629</v>
+        <v>1.161239645697378</v>
       </c>
       <c r="J19">
-        <v>0.05812973058934201</v>
+        <v>0.1644858609950459</v>
       </c>
       <c r="K19">
-        <v>1.147076212396001</v>
+        <v>0.4734220321511771</v>
       </c>
       <c r="L19">
-        <v>0.1975062778425709</v>
+        <v>0.298422520970739</v>
       </c>
       <c r="M19">
-        <v>0.2736971914502995</v>
+        <v>0.2237000678099363</v>
       </c>
       <c r="N19">
-        <v>0.9684210646717037</v>
+        <v>2.268660899648489</v>
       </c>
       <c r="O19">
-        <v>2.167015148807877</v>
+        <v>4.774688128771373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.328781978253772</v>
+        <v>0.7439032243748898</v>
       </c>
       <c r="C20">
-        <v>0.113568426972904</v>
+        <v>0.07894046146282108</v>
       </c>
       <c r="D20">
-        <v>0.09761085493174448</v>
+        <v>0.1256341138210004</v>
       </c>
       <c r="E20">
-        <v>0.05047349782988952</v>
+        <v>0.1255469461933316</v>
       </c>
       <c r="F20">
-        <v>0.8715014509813059</v>
+        <v>1.821189507761119</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4797888849838259</v>
+        <v>1.15892882625927</v>
       </c>
       <c r="J20">
-        <v>0.05765286403054137</v>
+        <v>0.1641823058336085</v>
       </c>
       <c r="K20">
-        <v>1.19220287930014</v>
+        <v>0.4863725139702524</v>
       </c>
       <c r="L20">
-        <v>0.2027081307721303</v>
+        <v>0.2993820102449121</v>
       </c>
       <c r="M20">
-        <v>0.2836541102243615</v>
+        <v>0.2262259503704556</v>
       </c>
       <c r="N20">
-        <v>0.952562262310071</v>
+        <v>2.261800160734228</v>
       </c>
       <c r="O20">
-        <v>2.178076402572572</v>
+        <v>4.768014205855877</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.495695578883158</v>
+        <v>0.7897072227243314</v>
       </c>
       <c r="C21">
-        <v>0.1227552729423991</v>
+        <v>0.08196245408147718</v>
       </c>
       <c r="D21">
-        <v>0.107243468643901</v>
+        <v>0.1277552756800731</v>
       </c>
       <c r="E21">
-        <v>0.05161751858462793</v>
+        <v>0.1252942176751883</v>
       </c>
       <c r="F21">
-        <v>0.898140016680621</v>
+        <v>1.816600546571053</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4793163589441818</v>
+        <v>1.15166961607212</v>
       </c>
       <c r="J21">
-        <v>0.05610526333315136</v>
+        <v>0.1632000134297922</v>
       </c>
       <c r="K21">
-        <v>1.34430738277274</v>
+        <v>0.529968688967358</v>
       </c>
       <c r="L21">
-        <v>0.2204000243113313</v>
+        <v>0.302721900524574</v>
       </c>
       <c r="M21">
-        <v>0.3173033270098315</v>
+        <v>0.2347968953032122</v>
       </c>
       <c r="N21">
-        <v>0.9007715751850459</v>
+        <v>2.239467199360554</v>
       </c>
       <c r="O21">
-        <v>2.220041025899775</v>
+        <v>4.747839646963342</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605347187601524</v>
+        <v>0.8198063272199647</v>
       </c>
       <c r="C22">
-        <v>0.1287713354903417</v>
+        <v>0.08392189177179432</v>
       </c>
       <c r="D22">
-        <v>0.1135981538484003</v>
+        <v>0.1291752164282514</v>
       </c>
       <c r="E22">
-        <v>0.05240846484165651</v>
+        <v>0.1251571944793373</v>
       </c>
       <c r="F22">
-        <v>0.9169190226960353</v>
+        <v>1.814228521930502</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4798016888180072</v>
+        <v>1.147301047864616</v>
       </c>
       <c r="J22">
-        <v>0.05513516775662097</v>
+        <v>0.1625859963974037</v>
       </c>
       <c r="K22">
-        <v>1.444136167822904</v>
+        <v>0.5585211016367566</v>
       </c>
       <c r="L22">
-        <v>0.2321328905217825</v>
+        <v>0.3049907201594806</v>
       </c>
       <c r="M22">
-        <v>0.3394550325584476</v>
+        <v>0.2404605335044465</v>
       </c>
       <c r="N22">
-        <v>0.8680712491844157</v>
+        <v>2.225406422032209</v>
       </c>
       <c r="O22">
-        <v>2.251231791502249</v>
+        <v>4.736328116544769</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.546768235620419</v>
+        <v>0.8037271469817426</v>
       </c>
       <c r="C23">
-        <v>0.1255590809334137</v>
+        <v>0.08287753749785054</v>
       </c>
       <c r="D23">
-        <v>0.1102008794172775</v>
+        <v>0.1284143095562911</v>
       </c>
       <c r="E23">
-        <v>0.05198227311381665</v>
+        <v>0.1252277578857637</v>
       </c>
       <c r="F23">
-        <v>0.9067665519218053</v>
+        <v>1.815437214710727</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4794676973478573</v>
+        <v>1.149598286839989</v>
       </c>
       <c r="J23">
-        <v>0.05564909935304474</v>
+        <v>0.1629111539044752</v>
       </c>
       <c r="K23">
-        <v>1.39081340106685</v>
+        <v>0.5432768672819748</v>
       </c>
       <c r="L23">
-        <v>0.2258545769858813</v>
+        <v>0.3037719740278675</v>
       </c>
       <c r="M23">
-        <v>0.3276166547518073</v>
+        <v>0.2374321200282239</v>
       </c>
       <c r="N23">
-        <v>0.8854166604444113</v>
+        <v>2.2328619717608</v>
       </c>
       <c r="O23">
-        <v>2.23422788203402</v>
+        <v>4.742319048467152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.326062463899802</v>
+        <v>0.743157396817594</v>
       </c>
       <c r="C24">
-        <v>0.1134184141070449</v>
+        <v>0.07889080643565194</v>
       </c>
       <c r="D24">
-        <v>0.09745436199765578</v>
+        <v>0.125600016928388</v>
       </c>
       <c r="E24">
-        <v>0.05045551006654669</v>
+        <v>0.125551553747993</v>
       </c>
       <c r="F24">
-        <v>0.8710881954481451</v>
+        <v>1.821275117184669</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4798095148636072</v>
+        <v>1.159053824948145</v>
       </c>
       <c r="J24">
-        <v>0.05767884745300744</v>
+        <v>0.1641988339729084</v>
       </c>
       <c r="K24">
-        <v>1.189723056554612</v>
+        <v>0.4856610103381911</v>
       </c>
       <c r="L24">
-        <v>0.2024216890485846</v>
+        <v>0.2993288813614043</v>
       </c>
       <c r="M24">
-        <v>0.2831066244801335</v>
+        <v>0.2260869216475996</v>
       </c>
       <c r="N24">
-        <v>0.9534276236918287</v>
+        <v>2.262174217469117</v>
       </c>
       <c r="O24">
-        <v>2.177451373358167</v>
+        <v>4.768372239144981</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090012910935286</v>
+        <v>0.6785494874518747</v>
       </c>
       <c r="C25">
-        <v>0.1003477080797452</v>
+        <v>0.0745240698410683</v>
       </c>
       <c r="D25">
-        <v>0.08393624413591283</v>
+        <v>0.1227107952866504</v>
       </c>
       <c r="E25">
-        <v>0.04898569837187772</v>
+        <v>0.1260224071285894</v>
       </c>
       <c r="F25">
-        <v>0.8380518138593729</v>
+        <v>1.830272859549382</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.483367566022018</v>
+        <v>1.170869683303799</v>
       </c>
       <c r="J25">
-        <v>0.06004165165785746</v>
+        <v>0.1657083039488629</v>
       </c>
       <c r="K25">
-        <v>0.974247859219588</v>
+        <v>0.4237892834996444</v>
       </c>
       <c r="L25">
-        <v>0.1778101403261232</v>
+        <v>0.2949090987803729</v>
       </c>
       <c r="M25">
-        <v>0.2356908510157965</v>
+        <v>0.2141208637167971</v>
       </c>
       <c r="N25">
-        <v>1.031492709248473</v>
+        <v>2.296090814598343</v>
       </c>
       <c r="O25">
-        <v>2.131186827663839</v>
+        <v>4.80367644426866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6316186220041402</v>
+        <v>0.9174924697399547</v>
       </c>
       <c r="C2">
-        <v>0.07125170108918866</v>
+        <v>0.09071664865092544</v>
       </c>
       <c r="D2">
-        <v>0.1207110662168702</v>
+        <v>0.07415538032096691</v>
       </c>
       <c r="E2">
-        <v>0.1264744829630988</v>
+        <v>0.04804642995489417</v>
       </c>
       <c r="F2">
-        <v>1.839229413046716</v>
+        <v>0.8179633793005294</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.180964694729802</v>
+        <v>0.4885029752873429</v>
       </c>
       <c r="J2">
-        <v>0.1669240167403272</v>
+        <v>0.06192652712400903</v>
       </c>
       <c r="K2">
-        <v>0.378481612229848</v>
+        <v>0.8164142621664325</v>
       </c>
       <c r="L2">
-        <v>0.2919783802867784</v>
+        <v>0.1601880625841119</v>
       </c>
       <c r="M2">
-        <v>0.2055474092354217</v>
+        <v>0.201189153757646</v>
       </c>
       <c r="N2">
-        <v>2.323046336851971</v>
+        <v>1.092798326459672</v>
       </c>
       <c r="O2">
-        <v>4.835883696442039</v>
+        <v>2.108774301822308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.600220615874747</v>
+        <v>0.8011663448558011</v>
       </c>
       <c r="C3">
-        <v>0.06899834983577335</v>
+        <v>0.08417222191690854</v>
       </c>
       <c r="D3">
-        <v>0.1194363074791909</v>
+        <v>0.0676222927943968</v>
       </c>
       <c r="E3">
-        <v>0.1268470240156478</v>
+        <v>0.04749471699340191</v>
       </c>
       <c r="F3">
-        <v>1.846758462271971</v>
+        <v>0.8067832502318737</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.188678852143507</v>
+        <v>0.493446979921405</v>
       </c>
       <c r="J3">
-        <v>0.1678133097194987</v>
+        <v>0.06329260819251115</v>
       </c>
       <c r="K3">
-        <v>0.3479371721943778</v>
+        <v>0.7097721218260631</v>
       </c>
       <c r="L3">
-        <v>0.2901956071359777</v>
+        <v>0.1485235826414595</v>
       </c>
       <c r="M3">
-        <v>0.1998869737122959</v>
+        <v>0.1780163568141013</v>
       </c>
       <c r="N3">
-        <v>2.342554194110397</v>
+        <v>1.13663071439634</v>
       </c>
       <c r="O3">
-        <v>4.861596536175341</v>
+        <v>2.100283989474718</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.581146483914722</v>
+        <v>0.7299715288813786</v>
       </c>
       <c r="C4">
-        <v>0.06759724066484551</v>
+        <v>0.08014149194316644</v>
       </c>
       <c r="D4">
-        <v>0.118693624085239</v>
+        <v>0.06365438729680761</v>
       </c>
       <c r="E4">
-        <v>0.1271085485914742</v>
+        <v>0.04719647172891328</v>
       </c>
       <c r="F4">
-        <v>1.85210271246325</v>
+        <v>0.801054610240989</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.193846659057375</v>
+        <v>0.4971717668510216</v>
       </c>
       <c r="J4">
-        <v>0.1683917031470088</v>
+        <v>0.06417454056507488</v>
       </c>
       <c r="K4">
-        <v>0.3292647271921822</v>
+        <v>0.6443961332208659</v>
       </c>
       <c r="L4">
-        <v>0.2892018913790011</v>
+        <v>0.1414885864070641</v>
       </c>
       <c r="M4">
-        <v>0.1964861394992674</v>
+        <v>0.1638772985921193</v>
       </c>
       <c r="N4">
-        <v>2.355144546112391</v>
+        <v>1.164639008782225</v>
       </c>
       <c r="O4">
-        <v>4.879304513429688</v>
+        <v>2.098198674736622</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5734256933622817</v>
+        <v>0.7010086059906087</v>
       </c>
       <c r="C5">
-        <v>0.06702188112149088</v>
+        <v>0.07849530002939531</v>
       </c>
       <c r="D5">
-        <v>0.1184010980518124</v>
+        <v>0.06204786883684932</v>
       </c>
       <c r="E5">
-        <v>0.1272233885842766</v>
+        <v>0.04708493517164491</v>
       </c>
       <c r="F5">
-        <v>1.854462212088606</v>
+        <v>0.7989967239624249</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.196061156507636</v>
+        <v>0.4988582812448215</v>
       </c>
       <c r="J5">
-        <v>0.1686355561186801</v>
+        <v>0.06454469874463697</v>
       </c>
       <c r="K5">
-        <v>0.321676708198197</v>
+        <v>0.6177732104916629</v>
       </c>
       <c r="L5">
-        <v>0.2888224254798146</v>
+        <v>0.1386523328555924</v>
       </c>
       <c r="M5">
-        <v>0.1951192053120856</v>
+        <v>0.1581360451690692</v>
       </c>
       <c r="N5">
-        <v>2.360429313905574</v>
+        <v>1.176323277669287</v>
       </c>
       <c r="O5">
-        <v>4.887004079672749</v>
+        <v>2.098110503313009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5721468271306094</v>
+        <v>0.6962020933922872</v>
       </c>
       <c r="C6">
-        <v>0.06692607803084627</v>
+        <v>0.07822171705770131</v>
       </c>
       <c r="D6">
-        <v>0.1183531375011384</v>
+        <v>0.06178172412404592</v>
       </c>
       <c r="E6">
-        <v>0.1272429576391225</v>
+        <v>0.04706701335890884</v>
       </c>
       <c r="F6">
-        <v>1.85486498601594</v>
+        <v>0.7986714601634688</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.196435433400424</v>
+        <v>0.4991483781482096</v>
       </c>
       <c r="J6">
-        <v>0.1686765405721138</v>
+        <v>0.06460681082285724</v>
       </c>
       <c r="K6">
-        <v>0.3204180170517787</v>
+        <v>0.613353389185832</v>
       </c>
       <c r="L6">
-        <v>0.288760957573075</v>
+        <v>0.1381831819642372</v>
       </c>
       <c r="M6">
-        <v>0.1948933748841846</v>
+        <v>0.1571839008796374</v>
       </c>
       <c r="N6">
-        <v>2.361316155393622</v>
+        <v>1.178279655450092</v>
       </c>
       <c r="O6">
-        <v>4.888311801170616</v>
+        <v>2.098141154175053</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5810421468862614</v>
+        <v>0.7295807348006917</v>
       </c>
       <c r="C7">
-        <v>0.06758949894610566</v>
+        <v>0.08011930620442342</v>
       </c>
       <c r="D7">
-        <v>0.118689637908119</v>
+        <v>0.0636326796026836</v>
       </c>
       <c r="E7">
-        <v>0.1271100638617479</v>
+        <v>0.0471949272543366</v>
       </c>
       <c r="F7">
-        <v>1.85213379754066</v>
+        <v>0.8010257487144941</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.193876084766217</v>
+        <v>0.4971938349965725</v>
       </c>
       <c r="J7">
-        <v>0.1683949588024829</v>
+        <v>0.06417948917941807</v>
       </c>
       <c r="K7">
-        <v>0.3291623061427771</v>
+        <v>0.6440370226248291</v>
       </c>
       <c r="L7">
-        <v>0.2891966704553681</v>
+        <v>0.1414502137242692</v>
       </c>
       <c r="M7">
-        <v>0.1964676276867259</v>
+        <v>0.163799789350378</v>
       </c>
       <c r="N7">
-        <v>2.355215194282753</v>
+        <v>1.164795497068793</v>
       </c>
       <c r="O7">
-        <v>4.879406394353708</v>
+        <v>2.098194434005066</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6207505710850398</v>
+        <v>0.8773303680248148</v>
       </c>
       <c r="C8">
-        <v>0.07047839492211949</v>
+        <v>0.08846238993077549</v>
       </c>
       <c r="D8">
-        <v>0.1202632574124323</v>
+        <v>0.07189345422169424</v>
       </c>
       <c r="E8">
-        <v>0.1265961448056565</v>
+        <v>0.04784767748039265</v>
       </c>
       <c r="F8">
-        <v>1.841675870316244</v>
+        <v>0.8138671062197886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.1835350980299</v>
+        <v>0.4900617717151796</v>
       </c>
       <c r="J8">
-        <v>0.1672239367568586</v>
+        <v>0.06238854190922538</v>
       </c>
       <c r="K8">
-        <v>0.367933193807886</v>
+        <v>0.779618065275713</v>
       </c>
       <c r="L8">
-        <v>0.2913427976556449</v>
+        <v>0.1561389279704741</v>
       </c>
       <c r="M8">
-        <v>0.2035802760184851</v>
+        <v>0.1931795035387402</v>
       </c>
       <c r="N8">
-        <v>2.329645589313754</v>
+        <v>1.10768158264973</v>
       </c>
       <c r="O8">
-        <v>4.844351290028769</v>
+        <v>2.105182353313495</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7002144827138181</v>
+        <v>1.169298564971655</v>
       </c>
       <c r="C9">
-        <v>0.07600389197438062</v>
+        <v>0.1047498936247635</v>
       </c>
       <c r="D9">
-        <v>0.123664328726008</v>
+        <v>0.08846137194191073</v>
       </c>
       <c r="E9">
-        <v>0.1258474839351198</v>
+        <v>0.04945800122272104</v>
       </c>
       <c r="F9">
-        <v>1.826880382583134</v>
+        <v>0.8484932065464719</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.16667310665569</v>
+        <v>0.4817636150117259</v>
       </c>
       <c r="J9">
-        <v>0.1651836791612649</v>
+        <v>0.05922293170868276</v>
       </c>
       <c r="K9">
-        <v>0.4445930977456669</v>
+        <v>1.046677364583559</v>
       </c>
       <c r="L9">
-        <v>0.296347853461647</v>
+        <v>0.1860183880530499</v>
       </c>
       <c r="M9">
-        <v>0.2181150711380901</v>
+        <v>0.2515926869769309</v>
       </c>
       <c r="N9">
-        <v>2.284358322284866</v>
+        <v>1.004587775813432</v>
       </c>
       <c r="O9">
-        <v>4.790820363375104</v>
+        <v>2.144882041036539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7595410115415291</v>
+        <v>1.385786135403066</v>
       </c>
       <c r="C10">
-        <v>0.07997812401588078</v>
+        <v>0.1167102875672157</v>
       </c>
       <c r="D10">
-        <v>0.1263524347641223</v>
+        <v>0.1008945970685744</v>
       </c>
       <c r="E10">
-        <v>0.1254541373508964</v>
+        <v>0.05085551896130447</v>
       </c>
       <c r="F10">
-        <v>1.819478455324472</v>
+        <v>0.8803211849329813</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.156360370999312</v>
+        <v>0.4794545295527826</v>
       </c>
       <c r="J10">
-        <v>0.163839874655153</v>
+        <v>0.05711408400769002</v>
       </c>
       <c r="K10">
-        <v>0.5012780835376134</v>
+        <v>1.244170565375782</v>
       </c>
       <c r="L10">
-        <v>0.3005056398034895</v>
+        <v>0.2087260677730995</v>
       </c>
       <c r="M10">
-        <v>0.2291450729885511</v>
+        <v>0.2951358196961493</v>
       </c>
       <c r="N10">
-        <v>2.254037554788663</v>
+        <v>0.9345867672064064</v>
       </c>
       <c r="O10">
-        <v>4.760734928500455</v>
+        <v>2.191622401759332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7867295770157341</v>
+        <v>1.484848298217855</v>
       </c>
       <c r="C11">
-        <v>0.08176754092599481</v>
+        <v>0.1221593718164087</v>
       </c>
       <c r="D11">
-        <v>0.1276158601977642</v>
+        <v>0.1066159147923145</v>
       </c>
       <c r="E11">
-        <v>0.1253089511117924</v>
+        <v>0.05154089509970028</v>
       </c>
       <c r="F11">
-        <v>1.816861326948505</v>
+        <v>0.8963355130253206</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.15211809206928</v>
+        <v>0.4793014285263482</v>
       </c>
       <c r="J11">
-        <v>0.1632620331811978</v>
+        <v>0.05620314941177629</v>
       </c>
       <c r="K11">
-        <v>0.5271401691034896</v>
+        <v>1.334428000237466</v>
       </c>
       <c r="L11">
-        <v>0.3025004559033277</v>
+        <v>0.2192439161029966</v>
       </c>
       <c r="M11">
-        <v>0.2342378776180851</v>
+        <v>0.3151138860600113</v>
       </c>
       <c r="N11">
-        <v>2.240883152461941</v>
+        <v>0.9040613860981569</v>
       </c>
       <c r="O11">
-        <v>4.749049328326407</v>
+        <v>2.217106335572538</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7970534132011551</v>
+        <v>1.522456669875567</v>
       </c>
       <c r="C12">
-        <v>0.08244247783002834</v>
+        <v>0.1242247974912374</v>
       </c>
       <c r="D12">
-        <v>0.1281000680323245</v>
+        <v>0.1087925521477047</v>
       </c>
       <c r="E12">
-        <v>0.1252588033828488</v>
+        <v>0.051807831767265</v>
       </c>
       <c r="F12">
-        <v>1.8159778883755</v>
+        <v>0.9026335610630198</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.150576104904722</v>
+        <v>0.4793791220186989</v>
       </c>
       <c r="J12">
-        <v>0.1630480163862291</v>
+        <v>0.05586528175213168</v>
       </c>
       <c r="K12">
-        <v>0.5369438851499524</v>
+        <v>1.368677559984292</v>
       </c>
       <c r="L12">
-        <v>0.3032706138178582</v>
+        <v>0.2232558217782241</v>
       </c>
       <c r="M12">
-        <v>0.2361770669647427</v>
+        <v>0.3227063545466891</v>
       </c>
       <c r="N12">
-        <v>2.235993672111134</v>
+        <v>0.8926984334166665</v>
       </c>
       <c r="O12">
-        <v>4.744911429291932</v>
+        <v>2.227399276825565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7948287515610275</v>
+        <v>1.514352576665289</v>
       </c>
       <c r="C13">
-        <v>0.08229723742719841</v>
+        <v>0.1237798700017834</v>
       </c>
       <c r="D13">
-        <v>0.1279955292940684</v>
+        <v>0.1083233136755695</v>
       </c>
       <c r="E13">
-        <v>0.1252693890754593</v>
+        <v>0.0517500087580931</v>
       </c>
       <c r="F13">
-        <v>1.816163370535868</v>
+        <v>0.9012665522716148</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.150905333603191</v>
+        <v>0.4793562455052083</v>
       </c>
       <c r="J13">
-        <v>0.1630938954840584</v>
+        <v>0.05593773049589412</v>
       </c>
       <c r="K13">
-        <v>0.5348320306216863</v>
+        <v>1.361297960832388</v>
       </c>
       <c r="L13">
-        <v>0.303104091587187</v>
+        <v>0.2223904622391615</v>
       </c>
       <c r="M13">
-        <v>0.2357589565033535</v>
+        <v>0.3210699248003763</v>
       </c>
       <c r="N13">
-        <v>2.237042626578998</v>
+        <v>0.8951368041898582</v>
       </c>
       <c r="O13">
-        <v>4.745789834818112</v>
+        <v>2.225153330835298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7875783659394244</v>
+        <v>1.487940371557784</v>
       </c>
       <c r="C14">
-        <v>0.0818231221398662</v>
+        <v>0.1223292512869136</v>
       </c>
       <c r="D14">
-        <v>0.1276555808568247</v>
+        <v>0.1067947815298709</v>
       </c>
       <c r="E14">
-        <v>0.1253047287299065</v>
+        <v>0.0515627062902535</v>
       </c>
       <c r="F14">
-        <v>1.816786490637512</v>
+        <v>0.8968488952033695</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.15198994031239</v>
+        <v>0.4793050619806181</v>
       </c>
       <c r="J14">
-        <v>0.1632443297783164</v>
+        <v>0.05617521013251547</v>
       </c>
       <c r="K14">
-        <v>0.5279465235930161</v>
+        <v>1.337244242413192</v>
       </c>
       <c r="L14">
-        <v>0.302563521972445</v>
+        <v>0.2195733844678927</v>
       </c>
       <c r="M14">
-        <v>0.2343972032670791</v>
+        <v>0.3157379613240323</v>
       </c>
       <c r="N14">
-        <v>2.240479052216209</v>
+        <v>0.9031225739488742</v>
       </c>
       <c r="O14">
-        <v>4.748703147991279</v>
+        <v>2.217940048694913</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7831409352100138</v>
+        <v>1.471774967969594</v>
       </c>
       <c r="C15">
-        <v>0.08153236372280048</v>
+        <v>0.1214409872398221</v>
       </c>
       <c r="D15">
-        <v>0.1274481030220045</v>
+        <v>0.1058598479629609</v>
       </c>
       <c r="E15">
-        <v>0.1253270037970662</v>
+        <v>0.0514489497807773</v>
       </c>
       <c r="F15">
-        <v>1.817182176586748</v>
+        <v>0.8941737939093457</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.152662686436962</v>
+        <v>0.4792915824451001</v>
       </c>
       <c r="J15">
-        <v>0.1633370997580013</v>
+        <v>0.0563215995712083</v>
       </c>
       <c r="K15">
-        <v>0.5237302761487399</v>
+        <v>1.322520237278354</v>
       </c>
       <c r="L15">
-        <v>0.3022343270513517</v>
+        <v>0.2178516839939704</v>
       </c>
       <c r="M15">
-        <v>0.2335644729310005</v>
+        <v>0.3124756077466486</v>
       </c>
       <c r="N15">
-        <v>2.24259591709613</v>
+        <v>0.908039865933796</v>
       </c>
       <c r="O15">
-        <v>4.75052502225725</v>
+        <v>2.213606503273922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7577681493114312</v>
+        <v>1.379324899556593</v>
       </c>
       <c r="C16">
-        <v>0.07986080791192762</v>
+        <v>0.1163544091493947</v>
       </c>
       <c r="D16">
-        <v>0.1262706785412249</v>
+        <v>0.1005220697654821</v>
       </c>
       <c r="E16">
-        <v>0.1254643028551268</v>
+        <v>0.05081174890912799</v>
       </c>
       <c r="F16">
-        <v>1.819664562747839</v>
+        <v>0.8793066010641013</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.156646641183357</v>
+        <v>0.4794831498240057</v>
       </c>
       <c r="J16">
-        <v>0.1638783102183545</v>
+        <v>0.05717460000426478</v>
       </c>
       <c r="K16">
-        <v>0.4995894099241411</v>
+        <v>1.238281348159347</v>
       </c>
       <c r="L16">
-        <v>0.3003773457664067</v>
+        <v>0.2080426521824137</v>
       </c>
       <c r="M16">
-        <v>0.2288137458741843</v>
+        <v>0.2938338596733843</v>
       </c>
       <c r="N16">
-        <v>2.254910074629715</v>
+        <v>0.9366087716681749</v>
       </c>
       <c r="O16">
-        <v>4.761538822954378</v>
+        <v>2.190044915664231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7422536311017893</v>
+        <v>1.322766952341624</v>
       </c>
       <c r="C17">
-        <v>0.07883061568801963</v>
+        <v>0.1132366127845899</v>
       </c>
       <c r="D17">
-        <v>0.1255587199870902</v>
+        <v>0.0972647443462975</v>
       </c>
       <c r="E17">
-        <v>0.1255571597087233</v>
+        <v>0.05043374205029139</v>
       </c>
       <c r="F17">
-        <v>1.821379356873308</v>
+        <v>0.8705883434537327</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.15920560671174</v>
+        <v>0.4798350947433931</v>
       </c>
       <c r="J17">
-        <v>0.1642188867430079</v>
+        <v>0.05771036902961058</v>
       </c>
       <c r="K17">
-        <v>0.484798762054055</v>
+        <v>1.186717930437482</v>
       </c>
       <c r="L17">
-        <v>0.2992645595989103</v>
+        <v>0.2020746603403936</v>
       </c>
       <c r="M17">
-        <v>0.2259184764044022</v>
+        <v>0.2824432147031857</v>
       </c>
       <c r="N17">
-        <v>2.262627964876007</v>
+        <v>0.9544772381152999</v>
       </c>
       <c r="O17">
-        <v>4.768807450292371</v>
+        <v>2.176696592585614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7333490186990161</v>
+        <v>1.290290218702012</v>
       </c>
       <c r="C18">
-        <v>0.07823633796442664</v>
+        <v>0.1114440636443845</v>
       </c>
       <c r="D18">
-        <v>0.1251530446694318</v>
+        <v>0.09539732679962754</v>
       </c>
       <c r="E18">
-        <v>0.1256137464470779</v>
+        <v>0.05022097819289861</v>
       </c>
       <c r="F18">
-        <v>1.822436273530471</v>
+        <v>0.8657175526581753</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.160719727313019</v>
+        <v>0.4801215637710499</v>
       </c>
       <c r="J18">
-        <v>0.1644179276918791</v>
+        <v>0.05802307610991431</v>
       </c>
       <c r="K18">
-        <v>0.4762987429471366</v>
+        <v>1.157098539126395</v>
       </c>
       <c r="L18">
-        <v>0.2986342550412502</v>
+        <v>0.1986595996363434</v>
       </c>
       <c r="M18">
-        <v>0.2242602818161785</v>
+        <v>0.2759074504903438</v>
       </c>
       <c r="N18">
-        <v>2.267127207378882</v>
+        <v>0.9648783770089345</v>
       </c>
       <c r="O18">
-        <v>4.773176489236135</v>
+        <v>2.169414078605712</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7303373432217768</v>
+        <v>1.279303054990351</v>
       </c>
       <c r="C19">
-        <v>0.07803482774077963</v>
+        <v>0.1108372386829046</v>
       </c>
       <c r="D19">
-        <v>0.125016348685385</v>
+        <v>0.09476608011843268</v>
       </c>
       <c r="E19">
-        <v>0.1256334522264488</v>
+        <v>0.05014973188599647</v>
       </c>
       <c r="F19">
-        <v>1.822806262557073</v>
+        <v>0.8640926885370561</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.161239645697378</v>
+        <v>0.4802327952014522</v>
       </c>
       <c r="J19">
-        <v>0.1644858609950459</v>
+        <v>0.05812973058933668</v>
       </c>
       <c r="K19">
-        <v>0.4734220321511771</v>
+        <v>1.147076212396058</v>
       </c>
       <c r="L19">
-        <v>0.298422520970739</v>
+        <v>0.1975062778426491</v>
       </c>
       <c r="M19">
-        <v>0.2237000678099363</v>
+        <v>0.2736971914502817</v>
       </c>
       <c r="N19">
-        <v>2.268660899648489</v>
+        <v>0.9684210646716909</v>
       </c>
       <c r="O19">
-        <v>4.774688128771373</v>
+        <v>2.167015148807963</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7439032243748898</v>
+        <v>1.328781978253744</v>
       </c>
       <c r="C20">
-        <v>0.07894046146282108</v>
+        <v>0.113568426972563</v>
       </c>
       <c r="D20">
-        <v>0.1256341138210004</v>
+        <v>0.09761085493167343</v>
       </c>
       <c r="E20">
-        <v>0.1255469461933316</v>
+        <v>0.05047349782987354</v>
       </c>
       <c r="F20">
-        <v>1.821189507761119</v>
+        <v>0.8715014509813344</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.15892882625927</v>
+        <v>0.4797888849838365</v>
       </c>
       <c r="J20">
-        <v>0.1641823058336085</v>
+        <v>0.05765286403044456</v>
       </c>
       <c r="K20">
-        <v>0.4863725139702524</v>
+        <v>1.192202879300282</v>
       </c>
       <c r="L20">
-        <v>0.2993820102449121</v>
+        <v>0.2027081307721659</v>
       </c>
       <c r="M20">
-        <v>0.2262259503704556</v>
+        <v>0.2836541102243686</v>
       </c>
       <c r="N20">
-        <v>2.261800160734228</v>
+        <v>0.9525622623100797</v>
       </c>
       <c r="O20">
-        <v>4.768014205855877</v>
+        <v>2.178076402572628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7897072227243314</v>
+        <v>1.495695578883272</v>
       </c>
       <c r="C21">
-        <v>0.08196245408147718</v>
+        <v>0.122755272942058</v>
       </c>
       <c r="D21">
-        <v>0.1277552756800731</v>
+        <v>0.107243468643901</v>
       </c>
       <c r="E21">
-        <v>0.1252942176751883</v>
+        <v>0.05161751858462615</v>
       </c>
       <c r="F21">
-        <v>1.816600546571053</v>
+        <v>0.898140016680621</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.15166961607212</v>
+        <v>0.4793163589441818</v>
       </c>
       <c r="J21">
-        <v>0.1632000134297922</v>
+        <v>0.05610526333329702</v>
       </c>
       <c r="K21">
-        <v>0.529968688967358</v>
+        <v>1.34430738277257</v>
       </c>
       <c r="L21">
-        <v>0.302721900524574</v>
+        <v>0.2204000243113882</v>
       </c>
       <c r="M21">
-        <v>0.2347968953032122</v>
+        <v>0.3173033270098315</v>
       </c>
       <c r="N21">
-        <v>2.239467199360554</v>
+        <v>0.9007715751850495</v>
       </c>
       <c r="O21">
-        <v>4.747839646963342</v>
+        <v>2.220041025899747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8198063272199647</v>
+        <v>1.605347187601552</v>
       </c>
       <c r="C22">
-        <v>0.08392189177179432</v>
+        <v>0.1287713354908107</v>
       </c>
       <c r="D22">
-        <v>0.1291752164282514</v>
+        <v>0.1135981538486419</v>
       </c>
       <c r="E22">
-        <v>0.1251571944793373</v>
+        <v>0.0524084648416423</v>
       </c>
       <c r="F22">
-        <v>1.814228521930502</v>
+        <v>0.9169190226960495</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.147301047864616</v>
+        <v>0.479801688817993</v>
       </c>
       <c r="J22">
-        <v>0.1625859963974037</v>
+        <v>0.05513516775651972</v>
       </c>
       <c r="K22">
-        <v>0.5585211016367566</v>
+        <v>1.444136167822876</v>
       </c>
       <c r="L22">
-        <v>0.3049907201594806</v>
+        <v>0.2321328905217825</v>
       </c>
       <c r="M22">
-        <v>0.2404605335044465</v>
+        <v>0.3394550325584405</v>
       </c>
       <c r="N22">
-        <v>2.225406422032209</v>
+        <v>0.8680712491844553</v>
       </c>
       <c r="O22">
-        <v>4.736328116544769</v>
+        <v>2.251231791502249</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8037271469817426</v>
+        <v>1.546768235620618</v>
       </c>
       <c r="C23">
-        <v>0.08287753749785054</v>
+        <v>0.1255590809336411</v>
       </c>
       <c r="D23">
-        <v>0.1284143095562911</v>
+        <v>0.1102008794172633</v>
       </c>
       <c r="E23">
-        <v>0.1252277578857637</v>
+        <v>0.05198227311381132</v>
       </c>
       <c r="F23">
-        <v>1.815437214710727</v>
+        <v>0.9067665519217911</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.149598286839989</v>
+        <v>0.4794676973478431</v>
       </c>
       <c r="J23">
-        <v>0.1629111539044752</v>
+        <v>0.05564909935311846</v>
       </c>
       <c r="K23">
-        <v>0.5432768672819748</v>
+        <v>1.39081340106685</v>
       </c>
       <c r="L23">
-        <v>0.3037719740278675</v>
+        <v>0.2258545769857818</v>
       </c>
       <c r="M23">
-        <v>0.2374321200282239</v>
+        <v>0.3276166547518002</v>
       </c>
       <c r="N23">
-        <v>2.2328619717608</v>
+        <v>0.8854166604444325</v>
       </c>
       <c r="O23">
-        <v>4.742319048467152</v>
+        <v>2.234227882033963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.743157396817594</v>
+        <v>1.326062463899774</v>
       </c>
       <c r="C24">
-        <v>0.07889080643565194</v>
+        <v>0.1134184141063344</v>
       </c>
       <c r="D24">
-        <v>0.125600016928388</v>
+        <v>0.0974543619974213</v>
       </c>
       <c r="E24">
-        <v>0.125551553747993</v>
+        <v>0.05045551006651472</v>
       </c>
       <c r="F24">
-        <v>1.821275117184669</v>
+        <v>0.8710881954481025</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.159053824948145</v>
+        <v>0.4798095148636001</v>
       </c>
       <c r="J24">
-        <v>0.1641988339729084</v>
+        <v>0.05767884745312823</v>
       </c>
       <c r="K24">
-        <v>0.4856610103381911</v>
+        <v>1.189723056554698</v>
       </c>
       <c r="L24">
-        <v>0.2993288813614043</v>
+        <v>0.2024216890486201</v>
       </c>
       <c r="M24">
-        <v>0.2260869216475996</v>
+        <v>0.2831066244801335</v>
       </c>
       <c r="N24">
-        <v>2.262174217469117</v>
+        <v>0.9534276236918054</v>
       </c>
       <c r="O24">
-        <v>4.768372239144981</v>
+        <v>2.177451373358195</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6785494874518747</v>
+        <v>1.090012910935229</v>
       </c>
       <c r="C25">
-        <v>0.0745240698410683</v>
+        <v>0.100347708079326</v>
       </c>
       <c r="D25">
-        <v>0.1227107952866504</v>
+        <v>0.08393624413602652</v>
       </c>
       <c r="E25">
-        <v>0.1260224071285894</v>
+        <v>0.04898569837190436</v>
       </c>
       <c r="F25">
-        <v>1.830272859549382</v>
+        <v>0.83805181385938</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.170869683303799</v>
+        <v>0.483367566022018</v>
       </c>
       <c r="J25">
-        <v>0.1657083039488629</v>
+        <v>0.06004165165796671</v>
       </c>
       <c r="K25">
-        <v>0.4237892834996444</v>
+        <v>0.974247859219588</v>
       </c>
       <c r="L25">
-        <v>0.2949090987803729</v>
+        <v>0.17781014032618</v>
       </c>
       <c r="M25">
-        <v>0.2141208637167971</v>
+        <v>0.2356908510158178</v>
       </c>
       <c r="N25">
-        <v>2.296090814598343</v>
+        <v>1.031492709248492</v>
       </c>
       <c r="O25">
-        <v>4.80367644426866</v>
+        <v>2.131186827663839</v>
       </c>
     </row>
   </sheetData>
